--- a/biology/Zoologie/Callionima_acuta/Callionima_acuta.xlsx
+++ b/biology/Zoologie/Callionima_acuta/Callionima_acuta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Callionima acuta est une espèce d'insectes lépidoptères (papillons) de la famille des Sphingidae, sous-famille des  Macroglossinae, de la tribu des Dilophonotini, sous-tribu des Dilophonotina et du genre Callionima.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure varie autour de 32 mm.
 L'espèce est semblable à Callionima parce, mais est de couleur plus foncée. La couleur de fond de la face dorsal de l'aile antérieure est brun noirâtre. Le dessous des ailes postérieures a une ligne médiane et une ligne de points dans la moitié extérieure.
@@ -545,7 +559,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les adultes volent toute l'année.
 Le chenilles se nourrissent sur Tabernaemontana alba et d'autres espèces de la famille des Apocynaceae.
@@ -577,7 +593,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Répartition
 Il est connu en Bolivie, Brésil et au Pérou.</t>
@@ -608,12 +626,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>L'espèce Callionima acuta a été décrite par les entomologistes Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1910, sous le nom initiale de Hemeroplanes acuta[1].
-La localité type est Allianca au Brésil.
-Synonymie
-Hemeroplanes acuta Rothschild &amp; Jordan, 1910 Protonyme</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'espèce Callionima acuta a été décrite par les entomologistes Lionel Walter Rothschild et Heinrich Ernst Karl Jordan, en 1910, sous le nom initiale de Hemeroplanes acuta.
+La localité type est Allianca au Brésil.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Callionima_acuta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Callionima_acuta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hemeroplanes acuta Rothschild &amp; Jordan, 1910 Protonyme</t>
         </is>
       </c>
     </row>
